--- a/Deadlock_Player_Hero_Data/test_account_data - Copy.xlsx
+++ b/Deadlock_Player_Hero_Data/test_account_data - Copy.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="25" documentId="11_1E6913B7D3C05D510B993411595ED87656CB50F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88F736FB-73F5-42E4-A5CD-212EB830E907}"/>
   <bookViews>
-    <workbookView xWindow="46470" yWindow="1995" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41340" yWindow="4575" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,6 +122,30 @@
   <dxfs count="4">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -148,30 +172,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -185,8 +185,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E800CAB-6D0F-41C5-9EC5-191EAED9EEC1}" name="Table1" displayName="Table1" ref="A1:I2401" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E800CAB-6D0F-41C5-9EC5-191EAED9EEC1}" name="Table1" displayName="Table1" ref="A1:I2401" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:I2401" xr:uid="{5E800CAB-6D0F-41C5-9EC5-191EAED9EEC1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2401">
     <sortCondition ref="A1:A2401"/>
@@ -494,7 +498,7 @@
   <dimension ref="A1:I2401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34136,7 +34140,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
